--- a/config_6.1/permission_server_config.xlsx
+++ b/config_6.1/permission_server_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -8681,7 +8681,7 @@
     <t>奥秘CPS</t>
   </si>
   <si>
-    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
+    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
   </si>
   <si>
     <t>奥秘ALL</t>
@@ -8807,10 +8807,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -8876,8 +8876,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8890,6 +8929,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8899,37 +8975,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8943,24 +8989,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8975,46 +9006,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9024,8 +9017,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9148,7 +9148,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9160,7 +9172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9172,13 +9184,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9190,67 +9274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9268,67 +9292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9370,6 +9346,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -9390,17 +9386,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9420,15 +9410,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9444,22 +9425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9469,10 +9445,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9481,136 +9457,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10243,7 +10219,7 @@
   <dimension ref="A1:Q489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B488" sqref="B488"/>
     </sheetView>
@@ -15193,8 +15169,8 @@
   <sheetPr/>
   <dimension ref="A1:O403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G360" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G384" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -54207,8 +54183,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/config_6.1/permission_server_config.xlsx
+++ b/config_6.1/permission_server_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3381,7 +3381,7 @@
     <t>捕鱼奥秘ios用户没有下载欢乐天天捕鱼</t>
   </si>
   <si>
-    <t>txz_ type_plat</t>
+    <t>txz_type_plat</t>
   </si>
   <si>
     <t>通行证全cpl用户</t>
@@ -8859,9 +8859,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -8935,10 +8935,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8950,10 +8950,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8971,14 +8971,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -8987,9 +8979,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9026,8 +9025,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9036,14 +9043,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9065,7 +9065,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9199,85 +9199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9295,7 +9223,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9307,55 +9349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9393,6 +9393,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -9417,16 +9432,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -9456,21 +9471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -9496,10 +9496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9508,19 +9508,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9529,10 +9529,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9544,37 +9544,37 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -9583,58 +9583,58 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
@@ -10269,10 +10269,10 @@
   <sheetPr/>
   <dimension ref="A1:Q497"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C497" sqref="C497"/>
+      <selection pane="bottomLeft" activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -28920,7 +28920,7 @@
   <sheetPr/>
   <dimension ref="A1:I1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1063" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
